--- a/xlsx/纽约大学_intext.xlsx
+++ b/xlsx/纽约大学_intext.xlsx
@@ -20,1744 +20,1744 @@
     <t>纽约大学</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E8%AE%AD</t>
+  </si>
+  <si>
+    <t>校训</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_纽约大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>私立大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%91</t>
+  </si>
+  <si>
+    <t>基金</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E9%95%B7</t>
+  </si>
+  <si>
+    <t>校长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%BA%E6%85%95%E6%95%A6</t>
+  </si>
+  <si>
+    <t>贺慕敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%A7%91%E7%94%9F</t>
+  </si>
+  <si>
+    <t>本科生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E7%94%9F</t>
+  </si>
+  <si>
+    <t>研究生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
+  </si>
+  <si>
+    <t>纽约市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NCAA</t>
+  </si>
+  <si>
+    <t>NCAA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/University_Athletic_Association</t>
+  </si>
+  <si>
+    <t>University Athletic Association</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E8%89%B2</t>
+  </si>
+  <si>
+    <t>校色</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>纽约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>曼哈顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E5%9E%8B%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>研究型大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E5%A8%81%E6%B2%BB%E6%9D%91</t>
+  </si>
+  <si>
+    <t>格林威治村</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B9%BF%E5%9C%BA</t>
+  </si>
+  <si>
+    <t>华盛顿广场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%A6%E6%8E%92%E5%90%8D</t>
+  </si>
+  <si>
+    <t>大学排名</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%99%A4%E5%A3%AB%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>泰晤士高等教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%B0%E8%81%9E%E8%88%87%E4%B8%96%E7%95%8C%E5%A0%B1%E9%81%93</t>
+  </si>
+  <si>
+    <t>美国新闻与世界报道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%A6%E5%AD%A6%E6%9C%AF%E6%8E%92%E5%90%8D</t>
+  </si>
+  <si>
+    <t>世界大学学术排名</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%85%8B%E6%9E%97</t>
+  </si>
+  <si>
+    <t>布鲁克林</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/New_York_University_Abu_Dhabi</t>
+  </si>
+  <si>
+    <t>en-New York University Abu Dhabi</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E7%BA%BD%E7%BA%A6%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>上海纽约大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%8B%E6%8B%89</t>
+  </si>
+  <si>
+    <t>阿克拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
+  </si>
+  <si>
+    <t>柏林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%AE%9C%E8%AB%BE%E6%96%AF%E8%89%BE%E5%88%A9%E6%96%AF</t>
+  </si>
+  <si>
+    <t>布宜诺斯艾利斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E5%80%AB%E6%96%AF</t>
+  </si>
+  <si>
+    <t>佛罗伦斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
+  </si>
+  <si>
+    <t>伦敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E9%87%8C</t>
+  </si>
+  <si>
+    <t>马德里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
+  </si>
+  <si>
+    <t>巴黎</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>布拉格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%82%89%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>悉尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E7%B6%AD%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>特拉维夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
+  </si>
+  <si>
+    <t>华盛顿哥伦比亚特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%A4%A7%E5%AD%B8%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%8D%8E%E5%BE%97%E4%B8%BB%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各大学诺贝尔奖得主列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%B4%9D%E5%B0%94%E5%A5%96</t>
+  </si>
+  <si>
+    <t>阿贝尔奖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%88%A9%E7%AD%96%E5%A5%96</t>
+  </si>
+  <si>
+    <t>普利策奖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E5%8D%A1%E9%87%91%E5%83%8F%E5%A5%96</t>
+  </si>
+  <si>
+    <t>奥斯卡金像奖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%BE%8E%E7%8D%8E</t>
+  </si>
+  <si>
+    <t>艾美奖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%B0%BC%E5%A5%96</t>
+  </si>
+  <si>
+    <t>托尼奖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%85%8B%E9%98%BF%E7%91%9F%E5%A5%96</t>
+  </si>
+  <si>
+    <t>麦克阿瑟奖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E6%96%AF%E9%A0%93%E8%A9%95%E8%AB%96</t>
+  </si>
+  <si>
+    <t>普林斯顿评论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%9D%B0%E6%96%90%E9%80%8A</t>
+  </si>
+  <si>
+    <t>托马斯·杰斐逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BC%AF%E7%89%B9%C2%B7%E5%8A%A0%E5%8B%92%E5%BB%B7</t>
+  </si>
+  <si>
+    <t>艾伯特·加勒廷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E5%85%8B%E6%96%AF</t>
+  </si>
+  <si>
+    <t>布朗克斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>长岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B8%82%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>纽约市立大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%A5%B3%E7%A5%9E%E5%83%8F</t>
+  </si>
+  <si>
+    <t>自由女神像</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8</t>
+  </si>
+  <si>
+    <t>雅典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%BB%A3%E5%A0%B4%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>华盛顿广场公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E4%BC%A6%C2%B7%E5%9D%A1</t>
+  </si>
+  <si>
+    <t>爱伦·坡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%C2%B7%E5%90%90%E6%B8%A9</t>
+  </si>
+  <si>
+    <t>马克·吐温</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%B0%94%E6%9B%BC%C2%B7%E6%A2%85%E5%B0%94%E7%BB%B4%E5%B0%94</t>
+  </si>
+  <si>
+    <t>赫尔曼·梅尔维尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%89%B9%C2%B7%E6%83%A0%E7%89%B9%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>沃尔特·惠特曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%87%91%C2%B7%E5%A5%A5%E5%B0%BC%E5%B0%94</t>
+  </si>
+  <si>
+    <t>尤金·奥尼尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E9%80%8A%C2%B7%E6%B3%A2%E6%B4%9B%E5%85%8B</t>
+  </si>
+  <si>
+    <t>杰克逊·波洛克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E9%9C%8D%E6%99%AE</t>
+  </si>
+  <si>
+    <t>爱德华·霍普</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BC%A6%C2%B7%E9%87%91%E6%96%AF%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>艾伦·金斯堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%B2%8D%E5%8B%83%C2%B7%E8%BF%AA%E4%BC%A6</t>
+  </si>
+  <si>
+    <t>鲍勃·迪伦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%88%97%E4%BE%AC</t>
+  </si>
+  <si>
+    <t>约翰·列侬</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%87%8E%E6%B4%8B%E5%AD%90</t>
+  </si>
+  <si>
+    <t>小野洋子</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%A4%A7%E5%AD%A6%E5%9D%A6%E7%99%BB%E5%B7%A5%E7%A8%8B%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>纽约大学坦登工程学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
+  </si>
+  <si>
+    <t>以色列</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E7%BB%B4%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%BB%A5%E5%86%B2%E7%AA%81</t>
+  </si>
+  <si>
+    <t>巴以冲突</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>阿拉伯联合酋长国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E6%89%8E%E6%AF%94</t>
+  </si>
+  <si>
+    <t>阿布扎比</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E4%B8%9C%E5%B8%88%E8%8C%83%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>华东师范大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%99%86%E5%AE%B6%E5%98%B4</t>
+  </si>
+  <si>
+    <t>陆家嘴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%A4%A7%E5%AD%A6%E6%B3%95%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>纽约大学法学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%89%B9%E6%81%A9%E5%95%86%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>斯特恩商学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%A4%AB%E6%96%AF%E7%89%B9%E6%8B%89%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>霍夫斯特拉大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>纽约理工大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/QS%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%A6%E6%8E%92%E5%90%8D</t>
+  </si>
+  <si>
+    <t>QS世界大学排名</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%B0%E8%81%9E%E8%88%87%E4%B8%96%E7%95%8C%E5%A0%B1%E5%B0%8E</t>
+  </si>
+  <si>
+    <t>美国新闻与世界报导</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B8%83%E6%96%AF</t>
+  </si>
+  <si>
+    <t>福布斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E6%9C%88%E5%88%8A</t>
+  </si>
+  <si>
+    <t>华盛顿月刊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/MBA</t>
+  </si>
+  <si>
+    <t>MBA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽约州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新泽西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B6%85%E7%8B%84%E6%A0%BC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>康涅狄格州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E5%B0%BE%E8%B2%93</t>
+  </si>
+  <si>
+    <t>短尾猫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%BC%8F%E6%A9%84%E6%AC%96%E7%90%83</t>
+  </si>
+  <si>
+    <t>美式橄榄球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%89%B9%E9%AD%AF%E5%BE%B7%C2%B7B%C2%B7%E5%9F%83%E5%88%A9%E6%81%A9</t>
+  </si>
+  <si>
+    <t>格特鲁德·B·埃利恩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E5%85%8B%C2%B7%E5%9D%8E%E5%BE%B7%E5%B0%94</t>
+  </si>
+  <si>
+    <t>埃里克·坎德尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>哥伦比亚大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E8%8E%B1%E5%9B%A0%E6%96%AF</t>
+  </si>
+  <si>
+    <t>弗雷德里克·莱因斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E7%A6%8F%E5%BE%B7%C2%B7%E6%B2%99%E5%B0%94</t>
+  </si>
+  <si>
+    <t>克利福德·沙尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%B2%83%E5%B0%94%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>乔治·沃尔德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E5%88%A9%E5%8F%B6%E6%96%AF%C2%B7%E9%98%BF%E5%85%8B%E5%A1%9E%E5%B0%94%E7%BD%97%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>朱利叶斯·阿克塞尔罗德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E5%9F%83%E7%88%BE%E5%B7%B4%E6%8B%89%E8%BF%AA</t>
+  </si>
+  <si>
+    <t>穆罕默德·埃尔巴拉迪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8E%9F%E5%AD%90%E8%83%BD%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>国际原子能机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E5%93%88%E8%80%B6%E5%85%8B</t>
+  </si>
+  <si>
+    <t>弗里德里希·哈耶克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%91%9F%C2%B7%E7%A7%91%E6%81%A9%E4%BC%AF%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>阿瑟·科恩伯格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E5%9F%83%E7%B1%B3%E7%88%BE%C2%B7%E5%B8%95%E6%8B%89%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>乔治·埃米尔·帕拉德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%8E%B1%E4%BC%91%C2%B7%E9%B2%81%E7%89%B9</t>
+  </si>
+  <si>
+    <t>伊莱休·鲁特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%96%87%C2%B7%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>欧文·罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E8%8E%8E%E7%90%B3%C2%B7%E8%90%A8%E6%96%AF%E6%9B%BC%C2%B7%E8%80%B6%E6%B4%9B</t>
+  </si>
+  <si>
+    <t>罗莎琳·萨斯曼·耶洛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%80%AB%E8%88%87%E5%AF%87%E7%88%BE%C2%B7%E5%8F%B2%E6%99%AE%E6%B4%9B%E8%8C%B2</t>
+  </si>
+  <si>
+    <t>迪伦与寇尔·史普洛兹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Lady_GaGa</t>
+  </si>
+  <si>
+    <t>Lady GaGa</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E8%8A%B7%E7%91%A9</t>
+  </si>
+  <si>
+    <t>杨芷莹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/VEGA</t>
+  </si>
+  <si>
+    <t>VEGA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E7%92%87</t>
+  </si>
+  <si>
+    <t>刘璇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E5%A6%AE%C2%B7%E7%91%AA%E6%8B%89</t>
+  </si>
+  <si>
+    <t>鲁妮·玛拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E4%BC%AF%E7%89%B9%C2%B7%E6%B2%99%E8%B3%93</t>
+  </si>
+  <si>
+    <t>阿尔伯特·沙宾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%84%8A%E9%AB%93%E7%81%B0%E8%B3%AA%E7%82%8E%E7%96%AB%E8%8B%97</t>
+  </si>
+  <si>
+    <t>脊髓灰质炎疫苗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%8D%8E%E5%BE%B7%C2%B7%E6%B4%A5%E6%81%A9</t>
+  </si>
+  <si>
+    <t>霍华德·津恩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%9B%BC%E5%85%84%E5%BC%9F</t>
+  </si>
+  <si>
+    <t>雷曼兄弟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9E%E6%B8%9D</t>
+  </si>
+  <si>
+    <t>俞渝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BD%93%E5%BD%93%E7%BD%91</t>
+  </si>
+  <si>
+    <t>当当网</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BC%A6%C2%B7%E6%A0%BC%E6%9E%97%E6%96%AF%E6%BD%98</t>
+  </si>
+  <si>
+    <t>艾伦·格林斯潘</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E5%B1%80</t>
+  </si>
+  <si>
+    <t>联邦储备局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%C2%B7%E8%A5%BF%E6%91%A9%C2%B7%E9%9C%8D%E5%A4%AB%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>菲利普·西摩·霍夫曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%8E%89%E8%8E%8E%E7%99%BD%C2%B7%E6%AD%90%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>伊莉莎白·欧森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%AE%89</t>
+  </si>
+  <si>
+    <t>李安</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E5%A9%89%E5%A9%B7</t>
+  </si>
+  <si>
+    <t>张婉婷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E6%B4%BE%E5%85%8B%C2%B7%E6%9D%8E</t>
+  </si>
+  <si>
+    <t>史派克·李</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E7%81%B5</t>
+  </si>
+  <si>
+    <t>白灵</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E6%A0%BC%C2%B7%E7%91%9E%E5%AE%89</t>
+  </si>
+  <si>
+    <t>梅格·瑞安</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E9%88%BA%E8%8A%B8</t>
+  </si>
+  <si>
+    <t>陈钰芸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E6%96%AF%E7%A7%91%E5%A1%9E%E6%96%AF</t>
+  </si>
+  <si>
+    <t>马丁·斯科塞斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E8%BF%AA%C2%B7%E8%89%BE%E4%BC%A6</t>
+  </si>
+  <si>
+    <t>伍迪·艾伦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%B0%94%E9%BB%98%C2%B7%E4%BC%AF%E6%81%A9%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>埃尔默·伯恩斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E5%B0%94%C2%B7%E7%A7%91%E6%81%A9</t>
+  </si>
+  <si>
+    <t>乔尔·科恩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%81%A9%E5%85%84%E5%BC%9F</t>
+  </si>
+  <si>
+    <t>科恩兄弟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%90%89%E4%B8%BD%E5%A8%9C%C2%B7%E6%9C%B1%E8%8E%89</t>
+  </si>
+  <si>
+    <t>安吉丽娜·朱莉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%88%A9%E5%BC%97%C2%B7%E6%96%AF%E9%80%9A</t>
+  </si>
+  <si>
+    <t>奥利弗·斯通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%93%A6%E6%89%98%C2%B7%E8%8F%B2%E6%8B%89%E6%A0%BC%E6%85%95</t>
+  </si>
+  <si>
+    <t>萨瓦托·菲拉格慕</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%98%8C%E9%92%B0</t>
+  </si>
+  <si>
+    <t>李昌钰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>立法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%A7%E7%93%A6</t>
+  </si>
+  <si>
+    <t>日内瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>韩国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
+  </si>
+  <si>
+    <t>伊朗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
+  </si>
+  <si>
+    <t>台湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E7%B1%B3%E5%8B%92</t>
+  </si>
+  <si>
+    <t>罗伯特·米勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>联邦调查局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E8%BF%AA%C2%B7%E6%9C%B1%E5%88%A9%E5%AE%89%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>鲁迪·朱利安尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%91%9E%E9%8E%AE</t>
+  </si>
+  <si>
+    <t>李瑞镇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E6%B1%B6%E5%B8%8C</t>
+  </si>
+  <si>
+    <t>霍汶希</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E5%9C%8B%E6%A6%AE</t>
+  </si>
+  <si>
+    <t>方国荣</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Quacquarelli_Symonds</t>
+  </si>
+  <si>
+    <t>Quacquarelli Symonds</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E5%A4%A7%E5%AD%B8%E5%8D%94%E6%9C%83</t>
+  </si>
+  <si>
+    <t>Template talk-美国大学协会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A7%E5%AD%B8%E5%8D%94%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国大学协会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>公立大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>亚利桑那大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>加州大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>加州大学柏克莱分校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%88%B4%E7%BB%B4%E6%96%AF%E5%88%86%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>加州大学戴维斯分校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E7%88%BE%E7%81%A3%E5%88%86%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>加州大学尔湾分校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%88%86%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>加州大学洛杉矶分校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E5%9C%A3%E5%9C%B0%E4%BA%9A%E5%93%A5%E5%88%86%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>加州大学圣地亚哥分校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E5%9C%A3%E8%8A%AD%E8%8A%AD%E6%8B%89%E5%88%86%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>加州大学圣芭芭拉分校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>科罗拉多大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>佛罗里达大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%90%E6%B2%BB%E4%BA%9A%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>佐治亚理工学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>伊利诺大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>印第安纳大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%8D%B7%E5%8D%8E%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>爱荷华大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%8D%B7%E5%8D%8E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>爱荷华州立大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%90%A8%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>堪萨斯大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%A4%A7%E5%AD%B8%E5%AD%B8%E9%99%A2%E5%B8%82%E5%88%86%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>马里兰大学学院市分校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>密歇根大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>密歇根州立大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%8B%8F%E8%BE%BE%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>明尼苏达大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>密苏里大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>纽约州立大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%B0%B4%E7%89%9B%E5%9F%8E%E5%88%86%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>纽约州立大学水牛城分校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%BA%AA%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>石溪大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>北卡罗来纳大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%A4%A7%E5%AD%A6%E6%95%99%E5%A0%82%E5%B1%B1%E5%88%86%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>北卡罗来纳大学教堂山分校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>俄亥俄州立大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>俄勒冈大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>宾夕法尼亚州立大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>匹兹堡大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B8%A1%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>普渡大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%A0%BC%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>罗格斯大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%A5%A7%E6%96%AF%E6%B1%80%E5%88%86%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>德克萨斯州立大学奥斯汀分校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E8%BE%B2%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>德州农工大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>弗吉尼亚大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>华盛顿大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%A4%A7%E5%AD%A6%E9%BA%A6%E8%BF%AA%E9%80%8A%E5%88%86%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>威斯康辛大学麦迪逊分校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>波士顿大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%85%B0%E8%BF%AA%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>布兰迪斯大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>布朗大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>加州理工学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%86%85%E5%9F%BA%E6%A2%85%E9%9A%86%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>卡内基梅隆大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%96%AF%E8%A5%BF%E5%84%B2%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>凯斯西储大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>芝加哥大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>康乃尔大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%85%8B%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>杜克大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%BB%98%E9%87%8C%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>埃默里大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>哈佛大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E9%9C%8D%E6%99%AE%E9%87%91%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>约翰·霍普金斯大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>麻省理工学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E5%A4%A7%E5%AD%A6_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>西北大学 (伊利诺伊州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>宾夕法尼亚大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E6%96%AF%E9%A1%BF%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>普林斯顿大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>莱斯大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B9%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>罗彻斯特大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>南加州大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>史丹佛大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E8%98%AD%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>杜兰大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E5%BE%B7%E5%A0%A1%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>范德堡大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B7%AF%E6%98%93%E6%96%AF%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>圣路易斯华盛顿大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%B2%81%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>耶鲁大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%A4%A7%E5%AD%B8%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>加拿大大学列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%90%89%E5%B0%94%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>麦吉尔大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>多伦多大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A9%E4%B8%BB%E6%95%99%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>美国天主教大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>克拉克大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E5%9F%8E%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>雪城大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%A4%A7%E5%AD%A6%E6%9E%97%E8%82%AF%E5%88%86%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>内布拉斯加大学林肯分校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%9F%8E%E5%B8%82%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>纽约城市大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%9D%A6%E8%8E%AB%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>福坦莫大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>新学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>佩斯大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BA%A6%E7%BF%B0%E5%A4%A7%E5%AD%A6_(%E7%BA%BD%E7%BA%A6)</t>
+  </si>
+  <si>
+    <t>圣约翰大学 (纽约)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E9%B2%81%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>杜鲁学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B6%E5%8F%B2%E7%93%A6%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>叶史瓦大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%BA%B3%E5%BE%B7%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>巴纳德学院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Boricua_College</t>
+  </si>
+  <si>
+    <t>en-Boricua College</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Empire_State_College</t>
+  </si>
+  <si>
+    <t>en-Empire State College</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%8E%8B%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>国王学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%BA%97%E5%B1%B1%E6%9B%BC%E5%93%88%E9%A0%93%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>玛丽山曼哈顿学院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mercy_College_(New_York)</t>
+  </si>
+  <si>
+    <t>en-Mercy College (New York)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/College_of_Mount_Saint_Vincent</t>
+  </si>
+  <si>
+    <t>en-College of Mount Saint Vincent</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Nyack_College</t>
+  </si>
+  <si>
+    <t>en-Nyack College</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/St._Francis_College</t>
+  </si>
+  <si>
+    <t>en-St. Francis College</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/St._Joseph%27s_College_(New_York)</t>
+  </si>
+  <si>
+    <t>en-St. Joseph's College (New York)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E6%A0%BC%E7%BA%B3%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>瓦格纳学院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/American_Academy_of_Dramatic_Arts</t>
+  </si>
+  <si>
+    <t>en-American Academy of Dramatic Arts</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/American_Musical_and_Dramatic_Academy</t>
+  </si>
+  <si>
+    <t>en-American Musical and Dramatic Academy</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bard_Graduate_Center</t>
+  </si>
+  <si>
+    <t>en-Bard Graduate Center</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E4%BC%AF%E8%81%94%E7%9B%9F%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>库伯联盟学院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Christie%27s_Education</t>
+  </si>
+  <si>
+    <t>en-Christie's Education</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Fashion_Institute_of_Technology</t>
+  </si>
+  <si>
+    <t>en-Fashion Institute of Technology</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8C%B1%E8%8E%89%E4%BA%9A%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>茱莉亚学院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Laboratory_Institute_of_Merchandising</t>
+  </si>
+  <si>
+    <t>en-Laboratory Institute of Merchandising</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A1%BF%E9%9F%B3%E4%B9%90%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>曼哈顿音乐学院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/New_York_Academy_of_Art</t>
+  </si>
+  <si>
+    <t>en-New York Academy of Art</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E7%94%B5%E5%BD%B1%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>纽约电影学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E7%A7%91%E6%8A%80%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>纽约科技学院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/New_York_Studio_School</t>
+  </si>
+  <si>
+    <t>en-New York Studio School</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%91%9E%E7%89%B9%E8%97%9D%E8%A1%93%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>普瑞特艺术学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A7%86%E8%A7%89%E8%89%BA%E6%9C%AF%E5%AD%A6%E9%99%A2_(%E7%BA%BD%E7%BA%A6)</t>
+  </si>
+  <si>
+    <t>视觉艺术学院 (纽约)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6%E6%B5%B7%E4%BA%8B%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>纽约州立大学海事学院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Vaughn_College_of_Aeronautics_and_Technology</t>
+  </si>
+  <si>
+    <t>en-Vaughn College of Aeronautics and Technology</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%85%8B%E6%9E%97%E6%B3%95%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>布鲁克林法学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%B0%94%E4%BC%AF%E7%89%B9%E7%88%B1%E5%9B%A0%E6%96%AF%E5%9D%A6%E5%8C%BB%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>艾尔伯特爱因斯坦医学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%88%E5%B1%B1%E4%BC%8A%E5%9D%8E%E5%8C%BB%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>西奈山伊坎医学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E6%B3%95%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>纽约法学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%8C%BB%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>纽约医学院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Pacific_College_of_Oriental_Medicine</t>
+  </si>
+  <si>
+    <t>en-Pacific College of Oriental Medicine</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Phillips_Beth_Israel_School_of_Nursing</t>
+  </si>
+  <si>
+    <t>en-Phillips Beth Israel School of Nursing</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/New_York_College_of_Podiatric_Medicine</t>
+  </si>
+  <si>
+    <t>en-New York College of Podiatric Medicine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%85%8B%E8%8F%B2%E5%8B%92%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>洛克菲勒大学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/SUNY_Downstate_Medical_Center</t>
+  </si>
+  <si>
+    <t>en-SUNY Downstate Medical Center</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/SUNY_State_College_of_Optometry</t>
+  </si>
+  <si>
+    <t>en-SUNY State College of Optometry</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Weill_Cornell_Medical_College</t>
+  </si>
+  <si>
+    <t>en-Weill Cornell Medical College</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Alliance_Theological_Seminary</t>
+  </si>
+  <si>
+    <t>en-Alliance Theological Seminary</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/General_Theological_Seminary</t>
+  </si>
+  <si>
+    <t>en-General Theological Seminary</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E6%9D%A5%E5%8D%8F%E5%92%8C%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>希伯来协和学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8C%B6%E5%A4%AA%E6%95%99%E7%A5%9E%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国犹太教神学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%8D%8F%E5%92%8C%E7%A5%9E%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>纽约协和神学院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/New_York_Theological_Seminary</t>
+  </si>
+  <si>
+    <t>en-New York Theological Seminary</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bramson_ORT_College</t>
+  </si>
+  <si>
+    <t>en-Bramson ORT College</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Briarcliffe_College</t>
+  </si>
+  <si>
+    <t>en-Briarcliffe College</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/DeVry_University</t>
+  </si>
+  <si>
+    <t>en-DeVry University</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Gibbs_College</t>
+  </si>
+  <si>
+    <t>en-Gibbs College</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Metropolitan_College_of_New_York</t>
+  </si>
+  <si>
+    <t>en-Metropolitan College of New York</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Monroe_College</t>
+  </si>
+  <si>
+    <t>en-Monroe College</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bank_Street_College_of_Education</t>
+  </si>
+  <si>
+    <t>en-Bank Street College of Education</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Berkeley_College</t>
+  </si>
+  <si>
+    <t>en-Berkeley College</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E5%A4%A7%E5%AD%A6%E6%95%99%E8%82%B2%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>哥伦比亚大学教育学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>虚拟国际规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
+  </si>
+  <si>
+    <t>国际标准名称识别码</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>大学文档系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>法国国家图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>澳洲国家图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>西班牙国家图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E8%AE%AD</t>
-  </si>
-  <si>
-    <t>校训</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_纽约大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>私立大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%91</t>
-  </si>
-  <si>
-    <t>基金</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E9%95%B7</t>
-  </si>
-  <si>
-    <t>校長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%BA%E6%85%95%E6%95%A6</t>
-  </si>
-  <si>
-    <t>贺慕敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%A7%91%E7%94%9F</t>
-  </si>
-  <si>
-    <t>本科生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E7%94%9F</t>
-  </si>
-  <si>
-    <t>研究生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
-  </si>
-  <si>
-    <t>紐約市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NCAA</t>
-  </si>
-  <si>
-    <t>NCAA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/University_Athletic_Association</t>
-  </si>
-  <si>
-    <t>University Athletic Association</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E8%89%B2</t>
-  </si>
-  <si>
-    <t>校色</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>纽约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>曼哈顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E5%9E%8B%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>研究型大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>私立大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E5%A8%81%E6%B2%BB%E6%9D%91</t>
-  </si>
-  <si>
-    <t>格林威治村</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B9%BF%E5%9C%BA</t>
-  </si>
-  <si>
-    <t>华盛顿广场</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%A6%E6%8E%92%E5%90%8D</t>
-  </si>
-  <si>
-    <t>大学排名</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%99%A4%E5%A3%AB%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>泰晤士高等教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%B0%E8%81%9E%E8%88%87%E4%B8%96%E7%95%8C%E5%A0%B1%E9%81%93</t>
-  </si>
-  <si>
-    <t>美國新聞與世界報道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%A6%E5%AD%A6%E6%9C%AF%E6%8E%92%E5%90%8D</t>
-  </si>
-  <si>
-    <t>世界大学学术排名</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%85%8B%E6%9E%97</t>
-  </si>
-  <si>
-    <t>布鲁克林</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/New_York_University_Abu_Dhabi</t>
-  </si>
-  <si>
-    <t>en-New York University Abu Dhabi</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E7%BA%BD%E7%BA%A6%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>上海纽约大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%8B%E6%8B%89</t>
-  </si>
-  <si>
-    <t>阿克拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
-  </si>
-  <si>
-    <t>柏林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%AE%9C%E8%AB%BE%E6%96%AF%E8%89%BE%E5%88%A9%E6%96%AF</t>
-  </si>
-  <si>
-    <t>布宜諾斯艾利斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E5%80%AB%E6%96%AF</t>
-  </si>
-  <si>
-    <t>佛羅倫斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
-  </si>
-  <si>
-    <t>倫敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E9%87%8C</t>
-  </si>
-  <si>
-    <t>馬德里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
-  </si>
-  <si>
-    <t>巴黎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>布拉格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%82%89%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>悉尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E7%B6%AD%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>特拉維夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
-  </si>
-  <si>
-    <t>華盛頓哥倫比亞特區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%A4%A7%E5%AD%B8%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%8D%8E%E5%BE%97%E4%B8%BB%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各大學諾貝爾獎得主列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%B4%9D%E5%B0%94%E5%A5%96</t>
-  </si>
-  <si>
-    <t>阿贝尔奖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%88%A9%E7%AD%96%E5%A5%96</t>
-  </si>
-  <si>
-    <t>普利策奖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E5%8D%A1%E9%87%91%E5%83%8F%E5%A5%96</t>
-  </si>
-  <si>
-    <t>奥斯卡金像奖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%BE%8E%E7%8D%8E</t>
-  </si>
-  <si>
-    <t>艾美獎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%B0%BC%E5%A5%96</t>
-  </si>
-  <si>
-    <t>托尼奖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%85%8B%E9%98%BF%E7%91%9F%E5%A5%96</t>
-  </si>
-  <si>
-    <t>麦克阿瑟奖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E6%96%AF%E9%A0%93%E8%A9%95%E8%AB%96</t>
-  </si>
-  <si>
-    <t>普林斯頓評論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%9D%B0%E6%96%90%E9%80%8A</t>
-  </si>
-  <si>
-    <t>托马斯·杰斐逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BC%AF%E7%89%B9%C2%B7%E5%8A%A0%E5%8B%92%E5%BB%B7</t>
-  </si>
-  <si>
-    <t>艾伯特·加勒廷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E5%85%8B%E6%96%AF</t>
-  </si>
-  <si>
-    <t>布朗克斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>长岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B8%82%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>纽约市立大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%A5%B3%E7%A5%9E%E5%83%8F</t>
-  </si>
-  <si>
-    <t>自由女神像</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8</t>
-  </si>
-  <si>
-    <t>雅典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%BB%A3%E5%A0%B4%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>華盛頓廣場公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E4%BC%A6%C2%B7%E5%9D%A1</t>
-  </si>
-  <si>
-    <t>爱伦·坡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%C2%B7%E5%90%90%E6%B8%A9</t>
-  </si>
-  <si>
-    <t>马克·吐温</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%B0%94%E6%9B%BC%C2%B7%E6%A2%85%E5%B0%94%E7%BB%B4%E5%B0%94</t>
-  </si>
-  <si>
-    <t>赫尔曼·梅尔维尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%89%B9%C2%B7%E6%83%A0%E7%89%B9%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>沃尔特·惠特曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%87%91%C2%B7%E5%A5%A5%E5%B0%BC%E5%B0%94</t>
-  </si>
-  <si>
-    <t>尤金·奥尼尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E9%80%8A%C2%B7%E6%B3%A2%E6%B4%9B%E5%85%8B</t>
-  </si>
-  <si>
-    <t>杰克逊·波洛克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E9%9C%8D%E6%99%AE</t>
-  </si>
-  <si>
-    <t>愛德華·霍普</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BC%A6%C2%B7%E9%87%91%E6%96%AF%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>艾伦·金斯堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B2%8D%E5%8B%83%C2%B7%E8%BF%AA%E4%BC%A6</t>
-  </si>
-  <si>
-    <t>鲍勃·迪伦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%88%97%E4%BE%AC</t>
-  </si>
-  <si>
-    <t>约翰·列侬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%87%8E%E6%B4%8B%E5%AD%90</t>
-  </si>
-  <si>
-    <t>小野洋子</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%A4%A7%E5%AD%A6%E5%9D%A6%E7%99%BB%E5%B7%A5%E7%A8%8B%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>纽约大学坦登工程学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E7%BB%B4%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>特拉维夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%BB%A5%E5%86%B2%E7%AA%81</t>
-  </si>
-  <si>
-    <t>巴以冲突</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>阿拉伯联合酋长国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E6%89%8E%E6%AF%94</t>
-  </si>
-  <si>
-    <t>阿布扎比</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E4%B8%9C%E5%B8%88%E8%8C%83%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>华东师范大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%86%E5%AE%B6%E5%98%B4</t>
-  </si>
-  <si>
-    <t>陆家嘴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%A4%A7%E5%AD%A6%E6%B3%95%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>纽约大学法学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%89%B9%E6%81%A9%E5%95%86%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>斯特恩商学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%A4%AB%E6%96%AF%E7%89%B9%E6%8B%89%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>霍夫斯特拉大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>纽约理工大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
-  </si>
-  <si>
-    <t>大學排名</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/QS%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%A6%E6%8E%92%E5%90%8D</t>
-  </si>
-  <si>
-    <t>QS世界大学排名</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%B0%E8%81%9E%E8%88%87%E4%B8%96%E7%95%8C%E5%A0%B1%E5%B0%8E</t>
-  </si>
-  <si>
-    <t>美國新聞與世界報導</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B8%83%E6%96%AF</t>
-  </si>
-  <si>
-    <t>福布斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E6%9C%88%E5%88%8A</t>
-  </si>
-  <si>
-    <t>華盛頓月刊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/MBA</t>
-  </si>
-  <si>
-    <t>MBA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>纽约州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新泽西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B6%85%E7%8B%84%E6%A0%BC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>康涅狄格州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E5%B0%BE%E8%B2%93</t>
-  </si>
-  <si>
-    <t>短尾貓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%BC%8F%E6%A9%84%E6%AC%96%E7%90%83</t>
-  </si>
-  <si>
-    <t>美式橄欖球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%89%B9%E9%AD%AF%E5%BE%B7%C2%B7B%C2%B7%E5%9F%83%E5%88%A9%E6%81%A9</t>
-  </si>
-  <si>
-    <t>格特魯德·B·埃利恩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E5%85%8B%C2%B7%E5%9D%8E%E5%BE%B7%E5%B0%94</t>
-  </si>
-  <si>
-    <t>埃里克·坎德尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>哥伦比亚大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E8%8E%B1%E5%9B%A0%E6%96%AF</t>
-  </si>
-  <si>
-    <t>弗雷德里克·莱因斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E7%A6%8F%E5%BE%B7%C2%B7%E6%B2%99%E5%B0%94</t>
-  </si>
-  <si>
-    <t>克利福德·沙尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%B2%83%E5%B0%94%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>乔治·沃尔德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E5%88%A9%E5%8F%B6%E6%96%AF%C2%B7%E9%98%BF%E5%85%8B%E5%A1%9E%E5%B0%94%E7%BD%97%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>朱利叶斯·阿克塞尔罗德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E5%9F%83%E7%88%BE%E5%B7%B4%E6%8B%89%E8%BF%AA</t>
-  </si>
-  <si>
-    <t>穆罕默德·埃爾巴拉迪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8E%9F%E5%AD%90%E8%83%BD%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>國際原子能機構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E5%93%88%E8%80%B6%E5%85%8B</t>
-  </si>
-  <si>
-    <t>弗里德里希·哈耶克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%91%9F%C2%B7%E7%A7%91%E6%81%A9%E4%BC%AF%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>阿瑟·科恩伯格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E5%9F%83%E7%B1%B3%E7%88%BE%C2%B7%E5%B8%95%E6%8B%89%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>喬治·埃米爾·帕拉德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%8E%B1%E4%BC%91%C2%B7%E9%B2%81%E7%89%B9</t>
-  </si>
-  <si>
-    <t>伊莱休·鲁特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%96%87%C2%B7%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>欧文·罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E8%8E%8E%E7%90%B3%C2%B7%E8%90%A8%E6%96%AF%E6%9B%BC%C2%B7%E8%80%B6%E6%B4%9B</t>
-  </si>
-  <si>
-    <t>罗莎琳·萨斯曼·耶洛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%80%AB%E8%88%87%E5%AF%87%E7%88%BE%C2%B7%E5%8F%B2%E6%99%AE%E6%B4%9B%E8%8C%B2</t>
-  </si>
-  <si>
-    <t>迪倫與寇爾·史普洛茲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Lady_GaGa</t>
-  </si>
-  <si>
-    <t>Lady GaGa</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E8%8A%B7%E7%91%A9</t>
-  </si>
-  <si>
-    <t>楊芷瑩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/VEGA</t>
-  </si>
-  <si>
-    <t>VEGA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E7%92%87</t>
-  </si>
-  <si>
-    <t>劉璇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E5%A6%AE%C2%B7%E7%91%AA%E6%8B%89</t>
-  </si>
-  <si>
-    <t>魯妮·瑪拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E4%BC%AF%E7%89%B9%C2%B7%E6%B2%99%E8%B3%93</t>
-  </si>
-  <si>
-    <t>阿爾伯特·沙賓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%84%8A%E9%AB%93%E7%81%B0%E8%B3%AA%E7%82%8E%E7%96%AB%E8%8B%97</t>
-  </si>
-  <si>
-    <t>脊髓灰質炎疫苗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%8D%8E%E5%BE%B7%C2%B7%E6%B4%A5%E6%81%A9</t>
-  </si>
-  <si>
-    <t>霍华德·津恩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%9B%BC%E5%85%84%E5%BC%9F</t>
-  </si>
-  <si>
-    <t>雷曼兄弟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9E%E6%B8%9D</t>
-  </si>
-  <si>
-    <t>俞渝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%93%E5%BD%93%E7%BD%91</t>
-  </si>
-  <si>
-    <t>当当网</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BC%A6%C2%B7%E6%A0%BC%E6%9E%97%E6%96%AF%E6%BD%98</t>
-  </si>
-  <si>
-    <t>艾伦·格林斯潘</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E5%B1%80</t>
-  </si>
-  <si>
-    <t>聯邦儲備局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%C2%B7%E8%A5%BF%E6%91%A9%C2%B7%E9%9C%8D%E5%A4%AB%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>菲利普·西摩·霍夫曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%8E%89%E8%8E%8E%E7%99%BD%C2%B7%E6%AD%90%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>伊莉莎白·歐森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%AE%89</t>
-  </si>
-  <si>
-    <t>李安</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E5%A9%89%E5%A9%B7</t>
-  </si>
-  <si>
-    <t>張婉婷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E6%B4%BE%E5%85%8B%C2%B7%E6%9D%8E</t>
-  </si>
-  <si>
-    <t>史派克·李</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E7%81%B5</t>
-  </si>
-  <si>
-    <t>白灵</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E6%A0%BC%C2%B7%E7%91%9E%E5%AE%89</t>
-  </si>
-  <si>
-    <t>梅格·瑞安</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E9%88%BA%E8%8A%B8</t>
-  </si>
-  <si>
-    <t>陳鈺芸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E6%96%AF%E7%A7%91%E5%A1%9E%E6%96%AF</t>
-  </si>
-  <si>
-    <t>马丁·斯科塞斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E8%BF%AA%C2%B7%E8%89%BE%E4%BC%A6</t>
-  </si>
-  <si>
-    <t>伍迪·艾伦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%B0%94%E9%BB%98%C2%B7%E4%BC%AF%E6%81%A9%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>埃尔默·伯恩斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E5%B0%94%C2%B7%E7%A7%91%E6%81%A9</t>
-  </si>
-  <si>
-    <t>乔尔·科恩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%81%A9%E5%85%84%E5%BC%9F</t>
-  </si>
-  <si>
-    <t>科恩兄弟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%90%89%E4%B8%BD%E5%A8%9C%C2%B7%E6%9C%B1%E8%8E%89</t>
-  </si>
-  <si>
-    <t>安吉丽娜·朱莉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%88%A9%E5%BC%97%C2%B7%E6%96%AF%E9%80%9A</t>
-  </si>
-  <si>
-    <t>奥利弗·斯通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%93%A6%E6%89%98%C2%B7%E8%8F%B2%E6%8B%89%E6%A0%BC%E6%85%95</t>
-  </si>
-  <si>
-    <t>薩瓦托·菲拉格慕</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%98%8C%E9%92%B0</t>
-  </si>
-  <si>
-    <t>李昌钰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>立法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%A7%E7%93%A6</t>
-  </si>
-  <si>
-    <t>日內瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>韓國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
-  </si>
-  <si>
-    <t>台灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E7%B1%B3%E5%8B%92</t>
-  </si>
-  <si>
-    <t>羅伯特·米勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>聯邦調查局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E8%BF%AA%C2%B7%E6%9C%B1%E5%88%A9%E5%AE%89%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>魯迪·朱利安尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%91%9E%E9%8E%AE</t>
-  </si>
-  <si>
-    <t>李瑞鎮</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E6%B1%B6%E5%B8%8C</t>
-  </si>
-  <si>
-    <t>霍汶希</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E5%9C%8B%E6%A6%AE</t>
-  </si>
-  <si>
-    <t>方國榮</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Quacquarelli_Symonds</t>
-  </si>
-  <si>
-    <t>Quacquarelli Symonds</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E5%A4%A7%E5%AD%B8%E5%8D%94%E6%9C%83</t>
-  </si>
-  <si>
-    <t>Template talk-美國大學協會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A7%E5%AD%B8%E5%8D%94%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國大學協會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>公立大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>亚利桑那大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>加州大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>加州大學柏克萊分校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%88%B4%E7%BB%B4%E6%96%AF%E5%88%86%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>加州大学戴维斯分校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E7%88%BE%E7%81%A3%E5%88%86%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>加州大學爾灣分校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%88%86%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>加州大学洛杉矶分校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E5%9C%A3%E5%9C%B0%E4%BA%9A%E5%93%A5%E5%88%86%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>加州大学圣地亚哥分校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E5%9C%A3%E8%8A%AD%E8%8A%AD%E6%8B%89%E5%88%86%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>加州大学圣芭芭拉分校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>科羅拉多大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>佛罗里达大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%90%E6%B2%BB%E4%BA%9A%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>佐治亚理工学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>伊利諾大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>印第安纳大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%8D%B7%E5%8D%8E%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>爱荷华大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%8D%B7%E5%8D%8E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>爱荷华州立大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%90%A8%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>堪萨斯大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%A4%A7%E5%AD%B8%E5%AD%B8%E9%99%A2%E5%B8%82%E5%88%86%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>馬里蘭大學學院市分校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>密歇根大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>密歇根州立大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%8B%8F%E8%BE%BE%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>明尼苏达大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>密苏里大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>紐約州立大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%B0%B4%E7%89%9B%E5%9F%8E%E5%88%86%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>紐約州立大學水牛城分校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%BA%AA%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>石溪大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>北卡羅來納大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%A4%A7%E5%AD%A6%E6%95%99%E5%A0%82%E5%B1%B1%E5%88%86%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>北卡罗来纳大学教堂山分校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>俄亥俄州立大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>俄勒岡大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>宾夕法尼亚州立大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>匹茲堡大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B8%A1%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>普渡大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%A0%BC%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>罗格斯大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%A5%A7%E6%96%AF%E6%B1%80%E5%88%86%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>德克薩斯州立大學奧斯汀分校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E8%BE%B2%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>德州農工大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>弗吉尼亚大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>华盛顿大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%A4%A7%E5%AD%A6%E9%BA%A6%E8%BF%AA%E9%80%8A%E5%88%86%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>威斯康辛大学麦迪逊分校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>波士頓大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%85%B0%E8%BF%AA%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>布兰迪斯大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>布朗大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>加州理工学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%86%85%E5%9F%BA%E6%A2%85%E9%9A%86%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>卡内基梅隆大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%96%AF%E8%A5%BF%E5%84%B2%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>凱斯西儲大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>芝加哥大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>康乃爾大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%85%8B%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>杜克大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%BB%98%E9%87%8C%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>埃默里大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>哈佛大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E9%9C%8D%E6%99%AE%E9%87%91%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>约翰·霍普金斯大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>麻省理工学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E5%A4%A7%E5%AD%A6_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>西北大学 (伊利诺伊州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>宾夕法尼亚大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E6%96%AF%E9%A1%BF%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>普林斯顿大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>萊斯大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B9%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>羅徹斯特大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>南加州大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>史丹佛大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E8%98%AD%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>杜蘭大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E5%BE%B7%E5%A0%A1%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>范德堡大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B7%AF%E6%98%93%E6%96%AF%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>圣路易斯华盛顿大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%B2%81%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>耶鲁大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%A4%A7%E5%AD%B8%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>加拿大大學列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%90%89%E5%B0%94%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>麦吉尔大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>多倫多大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A9%E4%B8%BB%E6%95%99%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>美國天主教大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>克拉克大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E5%9F%8E%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>雪城大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%A4%A7%E5%AD%A6%E6%9E%97%E8%82%AF%E5%88%86%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>内布拉斯加大学林肯分校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%9F%8E%E5%B8%82%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>纽约城市大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%9D%A6%E8%8E%AB%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>福坦莫大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>新學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>佩斯大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BA%A6%E7%BF%B0%E5%A4%A7%E5%AD%A6_(%E7%BA%BD%E7%BA%A6)</t>
-  </si>
-  <si>
-    <t>圣约翰大学 (纽约)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E9%B2%81%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>杜鲁学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B6%E5%8F%B2%E7%93%A6%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>叶史瓦大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%BA%B3%E5%BE%B7%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>巴纳德学院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Boricua_College</t>
-  </si>
-  <si>
-    <t>en-Boricua College</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Empire_State_College</t>
-  </si>
-  <si>
-    <t>en-Empire State College</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%8E%8B%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>國王學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%BA%97%E5%B1%B1%E6%9B%BC%E5%93%88%E9%A0%93%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>瑪麗山曼哈頓學院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mercy_College_(New_York)</t>
-  </si>
-  <si>
-    <t>en-Mercy College (New York)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/College_of_Mount_Saint_Vincent</t>
-  </si>
-  <si>
-    <t>en-College of Mount Saint Vincent</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Nyack_College</t>
-  </si>
-  <si>
-    <t>en-Nyack College</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/St._Francis_College</t>
-  </si>
-  <si>
-    <t>en-St. Francis College</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/St._Joseph%27s_College_(New_York)</t>
-  </si>
-  <si>
-    <t>en-St. Joseph's College (New York)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E6%A0%BC%E7%BA%B3%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>瓦格纳学院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/American_Academy_of_Dramatic_Arts</t>
-  </si>
-  <si>
-    <t>en-American Academy of Dramatic Arts</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/American_Musical_and_Dramatic_Academy</t>
-  </si>
-  <si>
-    <t>en-American Musical and Dramatic Academy</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bard_Graduate_Center</t>
-  </si>
-  <si>
-    <t>en-Bard Graduate Center</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E4%BC%AF%E8%81%94%E7%9B%9F%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>库伯联盟学院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Christie%27s_Education</t>
-  </si>
-  <si>
-    <t>en-Christie's Education</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Fashion_Institute_of_Technology</t>
-  </si>
-  <si>
-    <t>en-Fashion Institute of Technology</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8C%B1%E8%8E%89%E4%BA%9A%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>茱莉亚学院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Laboratory_Institute_of_Merchandising</t>
-  </si>
-  <si>
-    <t>en-Laboratory Institute of Merchandising</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A1%BF%E9%9F%B3%E4%B9%90%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>曼哈顿音乐学院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/New_York_Academy_of_Art</t>
-  </si>
-  <si>
-    <t>en-New York Academy of Art</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E7%94%B5%E5%BD%B1%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>纽约电影学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E7%A7%91%E6%8A%80%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>纽约科技学院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/New_York_Studio_School</t>
-  </si>
-  <si>
-    <t>en-New York Studio School</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%91%9E%E7%89%B9%E8%97%9D%E8%A1%93%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>普瑞特藝術學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A7%86%E8%A7%89%E8%89%BA%E6%9C%AF%E5%AD%A6%E9%99%A2_(%E7%BA%BD%E7%BA%A6)</t>
-  </si>
-  <si>
-    <t>视觉艺术学院 (纽约)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6%E6%B5%B7%E4%BA%8B%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>纽约州立大学海事学院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Vaughn_College_of_Aeronautics_and_Technology</t>
-  </si>
-  <si>
-    <t>en-Vaughn College of Aeronautics and Technology</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%85%8B%E6%9E%97%E6%B3%95%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>布鲁克林法学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%B0%94%E4%BC%AF%E7%89%B9%E7%88%B1%E5%9B%A0%E6%96%AF%E5%9D%A6%E5%8C%BB%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>艾尔伯特爱因斯坦医学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%88%E5%B1%B1%E4%BC%8A%E5%9D%8E%E5%8C%BB%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>西奈山伊坎医学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E6%B3%95%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>纽约法学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%8C%BB%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>纽约医学院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Pacific_College_of_Oriental_Medicine</t>
-  </si>
-  <si>
-    <t>en-Pacific College of Oriental Medicine</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Phillips_Beth_Israel_School_of_Nursing</t>
-  </si>
-  <si>
-    <t>en-Phillips Beth Israel School of Nursing</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/New_York_College_of_Podiatric_Medicine</t>
-  </si>
-  <si>
-    <t>en-New York College of Podiatric Medicine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%85%8B%E8%8F%B2%E5%8B%92%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>洛克菲勒大學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/SUNY_Downstate_Medical_Center</t>
-  </si>
-  <si>
-    <t>en-SUNY Downstate Medical Center</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/SUNY_State_College_of_Optometry</t>
-  </si>
-  <si>
-    <t>en-SUNY State College of Optometry</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Weill_Cornell_Medical_College</t>
-  </si>
-  <si>
-    <t>en-Weill Cornell Medical College</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Alliance_Theological_Seminary</t>
-  </si>
-  <si>
-    <t>en-Alliance Theological Seminary</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/General_Theological_Seminary</t>
-  </si>
-  <si>
-    <t>en-General Theological Seminary</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E6%9D%A5%E5%8D%8F%E5%92%8C%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>希伯来协和学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8C%B6%E5%A4%AA%E6%95%99%E7%A5%9E%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國猶太教神學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%8D%8F%E5%92%8C%E7%A5%9E%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>纽约协和神学院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/New_York_Theological_Seminary</t>
-  </si>
-  <si>
-    <t>en-New York Theological Seminary</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bramson_ORT_College</t>
-  </si>
-  <si>
-    <t>en-Bramson ORT College</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Briarcliffe_College</t>
-  </si>
-  <si>
-    <t>en-Briarcliffe College</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/DeVry_University</t>
-  </si>
-  <si>
-    <t>en-DeVry University</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Gibbs_College</t>
-  </si>
-  <si>
-    <t>en-Gibbs College</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Metropolitan_College_of_New_York</t>
-  </si>
-  <si>
-    <t>en-Metropolitan College of New York</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Monroe_College</t>
-  </si>
-  <si>
-    <t>en-Monroe College</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bank_Street_College_of_Education</t>
-  </si>
-  <si>
-    <t>en-Bank Street College of Education</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Berkeley_College</t>
-  </si>
-  <si>
-    <t>en-Berkeley College</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E5%A4%A7%E5%AD%A6%E6%95%99%E8%82%B2%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>哥伦比亚大学教育学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>虚拟国际规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
-  </si>
-  <si>
-    <t>國際標準名稱識別碼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>大學文檔系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>法国国家图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>澳洲國家圖書館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>西班牙国家图书馆</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2106,7 +2106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I300"/>
+  <dimension ref="A1:I302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2592,7 +2592,7 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -2618,10 +2618,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -2647,10 +2647,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>11</v>
@@ -2676,10 +2676,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -2705,10 +2705,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2734,10 +2734,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2763,10 +2763,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -2792,10 +2792,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>4</v>
@@ -2821,10 +2821,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2850,10 +2850,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2879,10 +2879,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2908,10 +2908,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -2937,10 +2937,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2966,10 +2966,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2995,10 +2995,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3024,10 +3024,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -3053,10 +3053,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -3082,10 +3082,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -3111,10 +3111,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3140,10 +3140,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3169,10 +3169,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3198,10 +3198,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3227,10 +3227,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3256,10 +3256,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3285,10 +3285,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3314,10 +3314,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -3343,10 +3343,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3372,10 +3372,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3401,10 +3401,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -3430,10 +3430,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3459,10 +3459,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3488,10 +3488,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" t="s">
         <v>37</v>
-      </c>
-      <c r="F48" t="s">
-        <v>38</v>
       </c>
       <c r="G48" t="n">
         <v>4</v>
@@ -3517,10 +3517,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>4</v>
@@ -3546,10 +3546,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
@@ -3575,10 +3575,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3604,10 +3604,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3633,10 +3633,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3662,10 +3662,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3691,10 +3691,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3720,10 +3720,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3749,10 +3749,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3778,10 +3778,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3807,10 +3807,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3836,10 +3836,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3865,10 +3865,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3894,10 +3894,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3923,10 +3923,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3952,10 +3952,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3981,10 +3981,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4010,10 +4010,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4039,10 +4039,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4068,10 +4068,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4097,10 +4097,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -4126,10 +4126,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4155,10 +4155,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4184,10 +4184,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4213,10 +4213,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4242,10 +4242,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -4271,10 +4271,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>50</v>
+      </c>
+      <c r="F75" t="s">
         <v>51</v>
-      </c>
-      <c r="F75" t="s">
-        <v>52</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -4300,10 +4300,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -4329,10 +4329,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4358,10 +4358,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>130</v>
+      </c>
+      <c r="F78" t="s">
         <v>131</v>
-      </c>
-      <c r="F78" t="s">
-        <v>132</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4387,10 +4387,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4416,10 +4416,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4445,10 +4445,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4474,10 +4474,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4503,10 +4503,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
         <v>45</v>
-      </c>
-      <c r="F83" t="s">
-        <v>46</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4532,10 +4532,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -4561,10 +4561,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -4590,10 +4590,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4619,10 +4619,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4648,10 +4648,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4677,10 +4677,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F89" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4706,10 +4706,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4735,10 +4735,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F91" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4764,10 +4764,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4793,10 +4793,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4822,10 +4822,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F94" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4851,10 +4851,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4880,10 +4880,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4909,10 +4909,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F97" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -4938,10 +4938,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4967,10 +4967,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4996,10 +4996,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5025,10 +5025,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5054,10 +5054,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5083,10 +5083,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5112,10 +5112,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5141,10 +5141,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5170,10 +5170,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5199,10 +5199,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5228,10 +5228,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5257,10 +5257,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5286,10 +5286,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5315,10 +5315,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5344,10 +5344,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5373,10 +5373,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5402,10 +5402,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5431,10 +5431,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5460,10 +5460,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5489,10 +5489,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5518,10 +5518,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5547,10 +5547,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5576,10 +5576,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5605,10 +5605,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5634,10 +5634,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5663,10 +5663,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5692,10 +5692,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5721,10 +5721,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5750,10 +5750,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5779,10 +5779,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5808,10 +5808,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5837,10 +5837,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5866,10 +5866,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5895,10 +5895,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5924,10 +5924,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5953,10 +5953,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5982,10 +5982,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6011,10 +6011,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6040,10 +6040,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6069,10 +6069,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6098,10 +6098,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6127,10 +6127,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6156,10 +6156,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6185,10 +6185,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6214,10 +6214,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6243,10 +6243,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6272,10 +6272,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6301,10 +6301,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6330,10 +6330,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6359,10 +6359,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6388,10 +6388,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6417,10 +6417,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6446,10 +6446,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6475,10 +6475,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6504,10 +6504,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6533,10 +6533,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F153" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6562,10 +6562,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F154" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6591,10 +6591,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F155" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6620,10 +6620,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F156" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G156" t="n">
         <v>5</v>
@@ -6649,10 +6649,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F157" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6678,10 +6678,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F158" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6707,10 +6707,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6736,10 +6736,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F160" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6765,10 +6765,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6794,10 +6794,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6823,10 +6823,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6852,10 +6852,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6881,10 +6881,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6910,10 +6910,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6939,10 +6939,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6968,10 +6968,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6997,10 +6997,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7026,10 +7026,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7055,10 +7055,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7084,10 +7084,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7113,10 +7113,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7142,10 +7142,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7171,10 +7171,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7200,10 +7200,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7229,10 +7229,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7258,10 +7258,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7287,10 +7287,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7316,10 +7316,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7345,10 +7345,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7374,10 +7374,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7403,10 +7403,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7432,10 +7432,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7461,10 +7461,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7490,10 +7490,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7519,10 +7519,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7548,10 +7548,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7577,10 +7577,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7606,10 +7606,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7635,10 +7635,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7664,10 +7664,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7693,10 +7693,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7722,10 +7722,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7751,10 +7751,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7809,10 +7809,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F197" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7838,10 +7838,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F198" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7867,10 +7867,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F199" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7896,10 +7896,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F200" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7925,10 +7925,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F201" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7954,10 +7954,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F202" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7983,10 +7983,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F203" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8012,10 +8012,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F204" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8041,10 +8041,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8070,10 +8070,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F206" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8099,10 +8099,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F207" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8128,10 +8128,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F208" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8157,10 +8157,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F209" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8186,10 +8186,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F210" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8215,10 +8215,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8244,10 +8244,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F212" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8273,10 +8273,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F213" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8302,10 +8302,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F214" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8331,10 +8331,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F215" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8360,10 +8360,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F216" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8389,10 +8389,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F217" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8418,10 +8418,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F218" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8447,10 +8447,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F219" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8476,10 +8476,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F220" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8505,10 +8505,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F221" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8534,10 +8534,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F222" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8563,10 +8563,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8592,10 +8592,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F224" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8621,10 +8621,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F225" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8650,10 +8650,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8679,10 +8679,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F227" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8708,10 +8708,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G228" t="n">
         <v>105</v>
@@ -8737,10 +8737,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F229" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G229" t="n">
         <v>4</v>
@@ -8766,10 +8766,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F230" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8795,10 +8795,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F231" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8824,10 +8824,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F232" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8853,10 +8853,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F233" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8882,10 +8882,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F234" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8911,10 +8911,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F235" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8940,10 +8940,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F236" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8969,10 +8969,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F237" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8998,10 +8998,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F238" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9027,10 +9027,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F239" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9056,10 +9056,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F240" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9085,10 +9085,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F241" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9114,10 +9114,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F242" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9143,10 +9143,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F243" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9172,10 +9172,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F244" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9201,10 +9201,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F245" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9230,10 +9230,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F246" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9259,10 +9259,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F247" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9288,10 +9288,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F248" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9317,10 +9317,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F249" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9346,10 +9346,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F250" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9375,10 +9375,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F251" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9404,10 +9404,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F252" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9433,10 +9433,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F253" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9462,10 +9462,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F254" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9491,10 +9491,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F255" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9520,10 +9520,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F256" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9549,10 +9549,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F257" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9578,10 +9578,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F258" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9607,10 +9607,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F259" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9636,10 +9636,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F260" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9665,10 +9665,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F261" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9694,10 +9694,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F262" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9723,10 +9723,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F263" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9752,10 +9752,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F264" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9781,10 +9781,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F265" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9810,10 +9810,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F266" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9839,10 +9839,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F267" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9868,10 +9868,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F268" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9897,10 +9897,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F269" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9926,10 +9926,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F270" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9955,10 +9955,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F271" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9984,10 +9984,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F272" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10013,10 +10013,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F273" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10042,10 +10042,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F274" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10071,10 +10071,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F275" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10100,10 +10100,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F276" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10129,10 +10129,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F277" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10158,10 +10158,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F278" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10187,10 +10187,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F279" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10216,10 +10216,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F280" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10245,10 +10245,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F281" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10274,10 +10274,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F282" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10303,10 +10303,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F283" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10332,10 +10332,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F284" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10361,10 +10361,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F285" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10390,10 +10390,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F286" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10419,10 +10419,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F287" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10448,10 +10448,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F288" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10477,10 +10477,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F289" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10506,10 +10506,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F290" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10535,10 +10535,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F291" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10564,10 +10564,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F292" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G292" t="n">
         <v>3</v>
@@ -10593,10 +10593,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F293" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10622,10 +10622,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F294" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10651,10 +10651,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F295" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10680,10 +10680,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F296" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10709,10 +10709,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F297" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10738,10 +10738,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F298" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10767,10 +10767,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F299" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10796,18 +10796,76 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>576</v>
+      </c>
+      <c r="F300" t="s">
+        <v>577</v>
+      </c>
+      <c r="G300" t="n">
+        <v>1</v>
+      </c>
+      <c r="H300" t="s">
+        <v>4</v>
+      </c>
+      <c r="I300" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>0</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1</v>
+      </c>
+      <c r="D301" t="n">
+        <v>300</v>
+      </c>
+      <c r="E301" t="s">
+        <v>578</v>
+      </c>
+      <c r="F301" t="s">
         <v>579</v>
       </c>
-      <c r="F300" t="s">
+      <c r="G301" t="n">
+        <v>4</v>
+      </c>
+      <c r="H301" t="s">
+        <v>4</v>
+      </c>
+      <c r="I301" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>0</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1</v>
+      </c>
+      <c r="D302" t="n">
+        <v>301</v>
+      </c>
+      <c r="E302" t="s">
+        <v>578</v>
+      </c>
+      <c r="F302" t="s">
         <v>580</v>
       </c>
-      <c r="G300" t="n">
-        <v>1</v>
-      </c>
-      <c r="H300" t="s">
-        <v>4</v>
-      </c>
-      <c r="I300" t="n">
+      <c r="G302" t="n">
+        <v>1</v>
+      </c>
+      <c r="H302" t="s">
+        <v>4</v>
+      </c>
+      <c r="I302" t="n">
         <v>3</v>
       </c>
     </row>
